--- a/pages/nhan-vien.xlsx
+++ b/pages/nhan-vien.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>STT</t>
   </si>
@@ -200,145 +200,127 @@
     <t>Trợ lý giám đốc</t>
   </si>
   <si>
-    <t>MNV1744811099</t>
-  </si>
-  <si>
-    <t>Trần Ngọc Anh</t>
-  </si>
-  <si>
-    <t>11/02/1999</t>
-  </si>
-  <si>
-    <t>Hà Tĩnh</t>
-  </si>
-  <si>
-    <t>Cộng tác viên</t>
-  </si>
-  <si>
-    <t>Quản lý chất lượng</t>
-  </si>
-  <si>
-    <t>Cử nhân Quản trị Nhân sự</t>
+    <t>MNV1744810744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Võ Thiên Bảo	</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>11/02/1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lâm Đồng	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">843977452635	</t>
+  </si>
+  <si>
+    <t>Cao học</t>
+  </si>
+  <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>Thạc sĩ quản trị kinh doanh</t>
+  </si>
+  <si>
+    <t>Phòng kỹ thuật</t>
+  </si>
+  <si>
+    <t>MNV1744810571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dương Minh Quân	</t>
+  </si>
+  <si>
+    <t>08/05/2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP. Hồ Chí Minh	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">579220313763	</t>
+  </si>
+  <si>
+    <t>Kế toán</t>
+  </si>
+  <si>
+    <t>Thạc sĩ kế toán</t>
+  </si>
+  <si>
+    <t>Phòng tài chính - kế toán</t>
+  </si>
+  <si>
+    <t>Phó phòng</t>
+  </si>
+  <si>
+    <t>MNV1744809957</t>
+  </si>
+  <si>
+    <t>Liễu Như Yên</t>
+  </si>
+  <si>
+    <t>20/04/2001</t>
+  </si>
+  <si>
+    <t>Bến Tre</t>
+  </si>
+  <si>
+    <t>Ly thân</t>
+  </si>
+  <si>
+    <t>0123456704</t>
+  </si>
+  <si>
+    <t>01/04/2021</t>
+  </si>
+  <si>
+    <t>TP. Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Cử nhân kế toán</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>MNV1744809732</t>
+  </si>
+  <si>
+    <t>Ngô Quang Phúc</t>
+  </si>
+  <si>
+    <t>01/10/2003</t>
+  </si>
+  <si>
+    <t>0123456708</t>
+  </si>
+  <si>
+    <t>10/04/2020</t>
+  </si>
+  <si>
+    <t>Nhân viên thử việc</t>
+  </si>
+  <si>
+    <t>MNV1744809575</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Thắng</t>
+  </si>
+  <si>
+    <t>07/04/2003</t>
+  </si>
+  <si>
+    <t>Bình Định</t>
+  </si>
+  <si>
+    <t>Quản lý nguồn nhân lực</t>
   </si>
   <si>
     <t>Phòng tổ chức - hành chính</t>
-  </si>
-  <si>
-    <t>Nhân viên</t>
-  </si>
-  <si>
-    <t>MNV1744810744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Võ Thiên Bảo	</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>11/02/1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lâm Đồng	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">843977452635	</t>
-  </si>
-  <si>
-    <t>Cao học</t>
-  </si>
-  <si>
-    <t>Quản lý</t>
-  </si>
-  <si>
-    <t>Thạc sĩ quản trị kinh doanh</t>
-  </si>
-  <si>
-    <t>MNV1744810571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dương Minh Quân	</t>
-  </si>
-  <si>
-    <t>08/05/2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP. Hồ Chí Minh	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">579220313763	</t>
-  </si>
-  <si>
-    <t>Kế toán</t>
-  </si>
-  <si>
-    <t>Thạc sĩ kế toán</t>
-  </si>
-  <si>
-    <t>Phòng tài chính - kế toán</t>
-  </si>
-  <si>
-    <t>Phó phòng</t>
-  </si>
-  <si>
-    <t>MNV1744809957</t>
-  </si>
-  <si>
-    <t>Liễu Như Yên</t>
-  </si>
-  <si>
-    <t>20/04/2001</t>
-  </si>
-  <si>
-    <t>Bến Tre</t>
-  </si>
-  <si>
-    <t>Ly thân</t>
-  </si>
-  <si>
-    <t>0123456704</t>
-  </si>
-  <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>TP. Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>Cử nhân kế toán</t>
-  </si>
-  <si>
-    <t>MNV1744809732</t>
-  </si>
-  <si>
-    <t>Ngô Quang Phúc</t>
-  </si>
-  <si>
-    <t>01/10/2003</t>
-  </si>
-  <si>
-    <t>0123456708</t>
-  </si>
-  <si>
-    <t>10/04/2020</t>
-  </si>
-  <si>
-    <t>Nhân viên thử việc</t>
-  </si>
-  <si>
-    <t>MNV1744809575</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Thắng</t>
-  </si>
-  <si>
-    <t>07/04/2003</t>
-  </si>
-  <si>
-    <t>Bình Định</t>
-  </si>
-  <si>
-    <t>Quản lý nguồn nhân lực</t>
   </si>
   <si>
     <t>Phó giám đốc</t>
@@ -760,10 +742,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:W12"/>
+      <selection activeCell="A1" sqref="A1:W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1088,28 +1070,28 @@
         <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2">
-        <v>541949602004</v>
+      <c r="H5" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>32</v>
@@ -1121,28 +1103,28 @@
         <v>34</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>41</v>
@@ -1153,13 +1135,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>73</v>
@@ -1201,19 +1183,19 @@
         <v>35</v>
       </c>
       <c r="R6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="V6" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>41</v>
@@ -1224,34 +1206,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>57</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>32</v>
@@ -1263,10 +1245,10 @@
         <v>34</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>35</v>
@@ -1275,16 +1257,16 @@
         <v>36</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>41</v>
@@ -1295,22 +1277,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>93</v>
@@ -1319,10 +1301,10 @@
         <v>94</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>32</v>
@@ -1334,28 +1316,28 @@
         <v>34</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>41</v>
@@ -1366,34 +1348,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>100</v>
+        <v>28</v>
+      </c>
+      <c r="H9" s="2">
+        <v>123127318123</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>32</v>
@@ -1405,28 +1387,28 @@
         <v>34</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>41</v>
@@ -1443,7 +1425,7 @@
         <v>104</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>105</v>
@@ -1454,8 +1436,8 @@
       <c r="G10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="2">
-        <v>123127318123</v>
+      <c r="H10" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>30</v>
@@ -1479,7 +1461,7 @@
         <v>106</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>35</v>
@@ -1488,16 +1470,16 @@
         <v>36</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>41</v>
@@ -1508,34 +1490,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>57</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>32</v>
@@ -1547,101 +1529,30 @@
         <v>34</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="W12" s="2" t="s">
         <v>41</v>
       </c>
     </row>
